--- a/Gantt Chart Template.xlsx
+++ b/Gantt Chart Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d012751j\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganda\Documents\GitHub\Project-RimFortress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F2E29C-327A-4DA7-B35E-B0F8A5300F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94252EAD-7204-4059-9CD8-7EC40F3344F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Project Planner</t>
   </si>
@@ -163,45 +163,6 @@
   </si>
   <si>
     <t>PERIODS</t>
-  </si>
-  <si>
-    <t>Activity 14</t>
-  </si>
-  <si>
-    <t>Activity 15</t>
-  </si>
-  <si>
-    <t>Activity 16</t>
-  </si>
-  <si>
-    <t>Activity 17</t>
-  </si>
-  <si>
-    <t>Activity 18</t>
-  </si>
-  <si>
-    <t>Activity 19</t>
-  </si>
-  <si>
-    <t>Activity 20</t>
-  </si>
-  <si>
-    <t>Activity 21</t>
-  </si>
-  <si>
-    <t>Activity 22</t>
-  </si>
-  <si>
-    <t>Activity 23</t>
-  </si>
-  <si>
-    <t>Activity 24</t>
-  </si>
-  <si>
-    <t>Activity 25</t>
-  </si>
-  <si>
-    <t>Activity 26</t>
   </si>
   <si>
     <t>Proposal</t>
@@ -391,7 +352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -476,6 +437,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -534,7 +510,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -598,6 +574,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -610,13 +595,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
@@ -1049,7 +1034,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1072,13 +1057,13 @@
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1086,66 +1071,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="15"/>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="16"/>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="31"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="21" t="s">
+      <c r="V2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="33"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="36"/>
       <c r="Z2" s="18"/>
-      <c r="AA2" s="21" t="s">
+      <c r="AA2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="33"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="36"/>
       <c r="AH2" s="19"/>
-      <c r="AI2" s="21" t="s">
+      <c r="AI2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
     </row>
     <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="31" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="20" t="s">
@@ -1172,12 +1157,12 @@
       <c r="AA3" s="10"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1360,524 +1345,368 @@
       </c>
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="22">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22">
+        <v>5</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1</v>
+      </c>
+      <c r="F5" s="22">
+        <v>7</v>
+      </c>
+      <c r="G5" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="22">
+        <v>7</v>
+      </c>
+      <c r="D6" s="22">
+        <v>1</v>
+      </c>
+      <c r="E6" s="22">
+        <v>7</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1</v>
+      </c>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="22">
+        <v>7</v>
+      </c>
+      <c r="D7" s="22">
+        <v>1</v>
+      </c>
+      <c r="E7" s="22">
+        <v>7</v>
+      </c>
+      <c r="F7" s="22">
+        <v>1</v>
+      </c>
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="22">
+        <v>8</v>
+      </c>
+      <c r="D8" s="22">
+        <v>1</v>
+      </c>
+      <c r="E8" s="22">
+        <v>9</v>
+      </c>
+      <c r="F8" s="22">
+        <v>1</v>
+      </c>
+      <c r="G8" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="22">
+        <v>9</v>
+      </c>
+      <c r="D9" s="22">
+        <v>21</v>
+      </c>
+      <c r="E9" s="22">
+        <v>9</v>
+      </c>
+      <c r="F9" s="22">
+        <v>32</v>
+      </c>
+      <c r="G9" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="22">
+        <v>9</v>
+      </c>
+      <c r="D10" s="22">
+        <v>7</v>
+      </c>
+      <c r="E10" s="22">
+        <v>11</v>
+      </c>
+      <c r="F10" s="22">
+        <v>2</v>
+      </c>
+      <c r="G10" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="22">
+        <v>12</v>
+      </c>
+      <c r="D11" s="22">
+        <v>1</v>
+      </c>
+      <c r="E11" s="22">
+        <v>12</v>
+      </c>
+      <c r="F11" s="22">
+        <v>1</v>
+      </c>
+      <c r="G11" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="22">
+        <v>30</v>
+      </c>
+      <c r="D12" s="22">
         <v>28</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>5</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>7</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="7">
-        <v>7</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7">
-        <v>7</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="7">
-        <v>7</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7">
-        <v>7</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="7">
-        <v>8</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7">
-        <v>9</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="7">
-        <v>9</v>
-      </c>
-      <c r="D9" s="7">
-        <v>21</v>
-      </c>
-      <c r="E9" s="7">
-        <v>9</v>
-      </c>
-      <c r="F9" s="7">
-        <v>10</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="7">
-        <v>9</v>
-      </c>
-      <c r="D10" s="7">
-        <v>7</v>
-      </c>
-      <c r="E10" s="7">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0</v>
+      </c>
+      <c r="G12" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="22">
+        <v>18</v>
+      </c>
+      <c r="D13" s="22">
         <v>2</v>
       </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="7">
-        <v>12</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7">
-        <v>12</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="7">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7">
-        <v>28</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="E13" s="22">
+        <v>18</v>
+      </c>
+      <c r="F13" s="22">
+        <v>3</v>
+      </c>
+      <c r="G13" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="22">
+        <v>90</v>
+      </c>
+      <c r="D14" s="22">
+        <v>60</v>
+      </c>
+      <c r="E14" s="22">
         <v>0</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F14" s="22">
         <v>0</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G14" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="7">
-        <v>18</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2</v>
-      </c>
-      <c r="E13" s="7">
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="22">
+        <v>150</v>
+      </c>
+      <c r="D15" s="22">
+        <v>155</v>
+      </c>
+      <c r="E15" s="22">
         <v>0</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F15" s="22">
         <v>0</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G15" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="7">
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="22">
+        <v>155</v>
+      </c>
+      <c r="D16" s="22">
+        <v>160</v>
+      </c>
+      <c r="E16" s="22">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
+      <c r="F16" s="22">
         <v>0</v>
       </c>
-      <c r="E14" s="7">
+      <c r="G16" s="23">
         <v>0</v>
       </c>
-      <c r="F14" s="7">
+    </row>
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="22">
+        <v>160</v>
+      </c>
+      <c r="D17" s="22">
+        <v>165</v>
+      </c>
+      <c r="E17" s="22">
         <v>0</v>
       </c>
-      <c r="G14" s="8">
+      <c r="F17" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="7">
+      <c r="G17" s="23">
         <v>0</v>
       </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7">
-        <v>0</v>
-      </c>
-      <c r="E27" s="7">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0</v>
-      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0</v>
-      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
-      <c r="E30" s="7">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7">
-        <v>0</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0</v>
-      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="12">
